--- a/biology/Zoologie/Azuré_pont-euxin/Azuré_pont-euxin.xlsx
+++ b/biology/Zoologie/Azuré_pont-euxin/Azuré_pont-euxin.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F7"/>
+  <dimension ref="A1:H11"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_pont-euxin</t>
+          <t>Azuré_pont-euxin</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Aricia anteros
 L’Azuré pont-euxin (Aricia anteros) est une espèce de lépidoptères (papillons) de la famille des Lycaenidae et de la sous-famille des Polyommatinae, présente dans les Balkans et au Moyen-Orient.
@@ -494,7 +506,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_pont-euxin</t>
+          <t>Azuré_pont-euxin</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -512,17 +524,15 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>L’espèce Aricia anteros a été décrite par l'entomologiste allemand Christian Friedrich Freyer en 1838, sous le nom initial de Lycaena anteros[1],[2].
-Synonymes[2] : 
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>L’espèce Aricia anteros a été décrite par l'entomologiste allemand Christian Friedrich Freyer en 1838, sous le nom initial de Lycaena anteros,.
+Synonymes : 
 Lycaena anteros Freyer, 1838 — protonyme
 Ultraaricia anteros (Freyer, 1838)
-Plebeius anteros (Freyer, 1838)
-Sous-espèces
-Selon Funet[2] :
-Aricia anteros anteros (Freyer, 1838)
-Aricia anteros modicior Verity, 1938</t>
+Plebeius anteros (Freyer, 1838)</t>
         </is>
       </c>
     </row>
@@ -532,7 +542,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_pont-euxin</t>
+          <t>Azuré_pont-euxin</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -547,13 +557,20 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>Noms vernaculaires</t>
+          <t>Systématique</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>en français : l’Azuré pont-euxin
-en anglais : Blue Argus[2]</t>
+          <t>Sous-espèces</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Selon Funet :
+Aricia anteros anteros (Freyer, 1838)
+Aricia anteros modicior Verity, 1938</t>
         </is>
       </c>
     </row>
@@ -563,7 +580,7 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_pont-euxin</t>
+          <t>Azuré_pont-euxin</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
@@ -578,10 +595,45 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>Noms vernaculaires</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>en français : l’Azuré pont-euxin
+en anglais : Blue Argus</t>
+        </is>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Azuré_pont-euxin</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_pont-euxin</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
           <t>Description</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
         <is>
           <t xml:space="preserve">L’imago d’Aricia anteros est un petit papillon qui présente un important dimorphisme sexuel : le dessus du mâle est bleu bordé de gris avec une frange blanche, celui de la femelle est marron avec une ligne submarginale de taches orange.
 Le verso est ocre orné de lignes de points noirs cernés de blanc et d'une ligne submarginale de points orange.
@@ -589,47 +641,13 @@
         </is>
       </c>
     </row>
-    <row r="6">
-      <c r="A6" s="1" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>Azur%C3%A9_pont-euxin</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>Portail:Zoologie/Articles liés</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_pont-euxin</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>Biologie</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Période de vol et hivernation
-Il vole en une, deux, ou trois générations suivant l'altitude[3].
-Plantes-hôtes
-Ses plantes-hôtes sont des Geranium, Geranium asphodeloides et Geranium sanguineum à basse altitude, Geranium macrorrhizum et Geranium subcaulescens au-dessus de 1 600 mètres[3].
-</t>
-        </is>
-      </c>
-    </row>
     <row r="7">
       <c r="A7" s="1" t="n">
         <v>5</v>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Azur%C3%A9_pont-euxin</t>
+          <t>Azuré_pont-euxin</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
@@ -644,16 +662,162 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>Période de vol et hivernation</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr"/>
+      <c r="H7" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il vole en une, deux, ou trois générations suivant l'altitude.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="1" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>Azuré_pont-euxin</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_pont-euxin</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>Biologie</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>Plantes-hôtes</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr"/>
+      <c r="H8" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ses plantes-hôtes sont des Geranium, Geranium asphodeloides et Geranium sanguineum à basse altitude, Geranium macrorrhizum et Geranium subcaulescens au-dessus de 1 600 mètres.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="1" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>Azuré_pont-euxin</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_pont-euxin</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
           <t>Écologie et distribution</t>
         </is>
       </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Il est présent en Europe dans les Balkans, en Croatie, Serbie, Albanie, dans le sud de la Roumanie et en Grèce, ainsi qu'en Turquie et en Iran[2],[3].
-Biotope
-Il occupe des clairières et des lieux fleuris.
-Protection
-Pas de statut de protection particulier, considéré comme assez commun en Bulgarie[4].
+      <c r="F9" t="inlineStr"/>
+      <c r="G9" t="inlineStr"/>
+      <c r="H9" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il est présent en Europe dans les Balkans, en Croatie, Serbie, Albanie, dans le sud de la Roumanie et en Grèce, ainsi qu'en Turquie et en Iran,.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="1" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>Azuré_pont-euxin</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_pont-euxin</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>Biotope</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr"/>
+      <c r="H10" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Il occupe des clairières et des lieux fleuris.
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="1" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>Azuré_pont-euxin</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>Portail:Zoologie/Articles liés</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Azur%C3%A9_pont-euxin</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>Écologie et distribution</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>Protection</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr"/>
+      <c r="H11" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Pas de statut de protection particulier, considéré comme assez commun en Bulgarie.
 </t>
         </is>
       </c>
